--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2495.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2495.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.538888678838216</v>
+        <v>1.040319800376892</v>
       </c>
       <c r="B1">
-        <v>4.053286105603783</v>
+        <v>0.8059442043304443</v>
       </c>
       <c r="C1">
-        <v>3.542520591518584</v>
+        <v>4.055136680603027</v>
       </c>
       <c r="D1">
-        <v>3.011749618359352</v>
+        <v>2.855939626693726</v>
       </c>
       <c r="E1">
-        <v>2.713341704745248</v>
+        <v>0.7960677146911621</v>
       </c>
     </row>
   </sheetData>
